--- a/Graph Results/Graph Results.xlsx
+++ b/Graph Results/Graph Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="641" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Facebook" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="63">
   <si>
     <t>Edges</t>
   </si>
@@ -205,6 +205,21 @@
   </si>
   <si>
     <t>*Note: the spanning trees are rooted by a vertex with median degree.  The results for this graph are that the roots create insignificant trees</t>
+  </si>
+  <si>
+    <t>Tree 3 v2</t>
+  </si>
+  <si>
+    <t>Approx. Diameter (14)</t>
+  </si>
+  <si>
+    <t>Tree 5 v2</t>
+  </si>
+  <si>
+    <t>Tree 3v2</t>
+  </si>
+  <si>
+    <t>Tree 3 v5</t>
   </si>
 </sst>
 </file>
@@ -538,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:Q20"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +569,7 @@
     <col min="17" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
@@ -603,8 +618,14 @@
       <c r="Q1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -656,8 +677,14 @@
       <c r="Q2">
         <v>41284</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>4988</v>
+      </c>
+      <c r="S2">
+        <v>5942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -709,8 +736,14 @@
       <c r="Q3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>8</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -762,8 +795,14 @@
       <c r="Q4">
         <v>4039</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>4039</v>
+      </c>
+      <c r="S4">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -815,13 +854,14 @@
       <c r="Q5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -870,8 +910,14 @@
       <c r="Q7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>1000</v>
+      </c>
+      <c r="S7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -920,8 +966,14 @@
       <c r="Q8">
         <v>668</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>940</v>
+      </c>
+      <c r="S8">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -970,8 +1022,14 @@
       <c r="Q9">
         <v>285</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>56</v>
+      </c>
+      <c r="S9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1020,8 +1078,14 @@
       <c r="Q10">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1070,8 +1134,14 @@
       <c r="Q11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1120,8 +1190,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1170,8 +1246,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1211,8 +1293,14 @@
       <c r="Q15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>11</v>
+      </c>
+      <c r="S15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1251,6 +1339,12 @@
       </c>
       <c r="Q16">
         <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1318,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f>SUM(Q15, Q16)</f>
         <v>14</v>
       </c>
     </row>
@@ -1536,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,7 +1642,7 @@
     <col min="13" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1585,8 +1679,14 @@
       <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1626,8 +1726,14 @@
       <c r="M2">
         <v>12908</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>9685</v>
+      </c>
+      <c r="O2">
+        <v>10728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1667,8 +1773,14 @@
       <c r="M3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1708,8 +1820,14 @@
       <c r="M4">
         <v>6474</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>6474</v>
+      </c>
+      <c r="O4">
+        <v>6474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1749,13 +1867,19 @@
       <c r="M5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1792,8 +1916,14 @@
       <c r="M7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>1000</v>
+      </c>
+      <c r="O7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1830,8 +1960,14 @@
       <c r="M8">
         <v>730</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>830</v>
+      </c>
+      <c r="O8">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1868,8 +2004,14 @@
       <c r="M9">
         <v>252</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>161</v>
+      </c>
+      <c r="O9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1906,8 +2048,14 @@
       <c r="M10">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1944,8 +2092,14 @@
       <c r="M11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1982,8 +2136,14 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2020,8 +2180,14 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2058,8 +2224,14 @@
       <c r="M15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>14</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2095,6 +2267,12 @@
       </c>
       <c r="M16">
         <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2303,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,7 +2497,7 @@
     <col min="17" max="17" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2368,8 +2546,14 @@
       <c r="Q1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2421,8 +2605,14 @@
       <c r="Q2">
         <v>69213</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>37107</v>
+      </c>
+      <c r="S2">
+        <v>42761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2468,8 +2658,14 @@
       <c r="Q3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>15</v>
+      </c>
+      <c r="S3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2515,8 +2711,14 @@
       <c r="Q4">
         <v>21363</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>21363</v>
+      </c>
+      <c r="S4">
+        <v>21363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2562,13 +2764,19 @@
       <c r="Q5">
         <v>85734</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>86938</v>
+      </c>
+      <c r="S5">
+        <v>86938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2611,8 +2819,14 @@
       <c r="Q7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2655,8 +2869,14 @@
       <c r="Q8">
         <v>978</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>975</v>
+      </c>
+      <c r="S8">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2699,8 +2919,14 @@
       <c r="Q9">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2743,8 +2969,14 @@
       <c r="Q10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2787,8 +3019,14 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2831,8 +3069,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2875,8 +3119,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2907,8 +3157,14 @@
       <c r="Q15">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>106</v>
+      </c>
+      <c r="S15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2938,6 +3194,12 @@
       </c>
       <c r="Q16">
         <v>13</v>
+      </c>
+      <c r="R16">
+        <v>49</v>
+      </c>
+      <c r="S16">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -2949,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:N17" si="0">SUM(C15, C16)</f>
+        <f t="shared" ref="C17:M17" si="0">SUM(C15, C16)</f>
         <v>0</v>
       </c>
       <c r="D17">
@@ -3018,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:N18" si="5">C15/163</f>
+        <f t="shared" ref="C18:M18" si="5">C15/163</f>
         <v>0</v>
       </c>
       <c r="D18" s="2">
@@ -3083,7 +3345,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" ref="B19:N20" si="7">B16/163</f>
+        <f t="shared" ref="B19:M20" si="7">B16/163</f>
         <v>0</v>
       </c>
       <c r="C19" s="2">
@@ -3228,10 +3490,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3244,7 +3506,7 @@
     <col min="17" max="17" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3293,8 +3555,14 @@
       <c r="Q1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3346,10 +3614,16 @@
       <c r="Q2">
         <v>104885</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>36660</v>
+      </c>
+      <c r="S2">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -3393,8 +3667,14 @@
       <c r="Q3">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>13</v>
+      </c>
+      <c r="S3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3440,8 +3720,14 @@
       <c r="Q4">
         <v>17903</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>17903</v>
+      </c>
+      <c r="S4">
+        <v>17903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3487,13 +3773,19 @@
       <c r="Q5">
         <v>114798</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>115378</v>
+      </c>
+      <c r="S5">
+        <v>115378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3536,8 +3828,14 @@
       <c r="Q7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>1000</v>
+      </c>
+      <c r="S7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3580,8 +3878,14 @@
       <c r="Q8">
         <v>987</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>989</v>
+      </c>
+      <c r="S8">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3624,8 +3928,14 @@
       <c r="Q9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3668,8 +3978,14 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3712,8 +4028,14 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3756,8 +4078,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3800,8 +4128,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3832,8 +4166,14 @@
       <c r="Q15">
         <v>174</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>70</v>
+      </c>
+      <c r="S15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -3863,6 +4203,12 @@
       </c>
       <c r="Q16">
         <v>26</v>
+      </c>
+      <c r="R16">
+        <v>91</v>
+      </c>
+      <c r="S16">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4153,10 +4499,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:Q20"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,7 +4514,7 @@
     <col min="17" max="17" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4217,8 +4563,14 @@
       <c r="Q1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4270,8 +4622,14 @@
       <c r="Q2">
         <v>121755</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>52497</v>
+      </c>
+      <c r="S2">
+        <v>64422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4323,8 +4681,14 @@
       <c r="Q3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>14</v>
+      </c>
+      <c r="S3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -4376,8 +4740,14 @@
       <c r="Q4">
         <v>33696</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>33696</v>
+      </c>
+      <c r="S4">
+        <v>33696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4429,13 +4799,19 @@
       <c r="Q5">
         <v>1065</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>2997</v>
+      </c>
+      <c r="S5">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4484,8 +4860,14 @@
       <c r="Q7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>1000</v>
+      </c>
+      <c r="S7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4534,8 +4916,14 @@
       <c r="Q8">
         <v>745</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>443</v>
+      </c>
+      <c r="S8">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4584,8 +4972,14 @@
       <c r="Q9">
         <v>251</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>453</v>
+      </c>
+      <c r="S9">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4634,8 +5028,14 @@
       <c r="Q10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>101</v>
+      </c>
+      <c r="S10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4684,8 +5084,14 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4734,8 +5140,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4784,8 +5196,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -4822,8 +5240,14 @@
       <c r="Q15">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>48</v>
+      </c>
+      <c r="S15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -4859,6 +5283,12 @@
       </c>
       <c r="Q16">
         <v>1</v>
+      </c>
+      <c r="R16">
+        <v>8</v>
+      </c>
+      <c r="S16">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -5144,10 +5574,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:Q20"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5160,7 +5590,7 @@
     <col min="17" max="17" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5209,8 +5639,14 @@
       <c r="Q1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5262,8 +5698,14 @@
       <c r="Q2">
         <v>244735</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>112636</v>
+      </c>
+      <c r="S2">
+        <v>135776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5315,8 +5757,14 @@
       <c r="Q3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -5368,8 +5816,14 @@
       <c r="Q4">
         <v>75877</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>75877</v>
+      </c>
+      <c r="S4">
+        <v>75877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -5421,13 +5875,19 @@
       <c r="Q5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>12</v>
+      </c>
+      <c r="S5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5476,8 +5936,14 @@
       <c r="Q7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>1000</v>
+      </c>
+      <c r="S7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5526,8 +5992,14 @@
       <c r="Q8">
         <v>750</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>463</v>
+      </c>
+      <c r="S8">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5576,8 +6048,14 @@
       <c r="Q9">
         <v>247</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>483</v>
+      </c>
+      <c r="S9">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5626,8 +6104,14 @@
       <c r="Q10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>52</v>
+      </c>
+      <c r="S10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5676,8 +6160,14 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5726,8 +6216,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5776,8 +6272,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -5814,8 +6316,14 @@
       <c r="Q15">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>105</v>
+      </c>
+      <c r="S15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -5851,6 +6359,12 @@
       </c>
       <c r="Q16">
         <v>4</v>
+      </c>
+      <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="S16">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -6137,10 +6651,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6153,7 +6667,7 @@
     <col min="17" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6202,8 +6716,14 @@
       <c r="Q1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6255,8 +6775,14 @@
       <c r="Q2">
         <v>2280120</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>1492114</v>
+      </c>
+      <c r="S2">
+        <v>1689731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6305,8 +6831,14 @@
       <c r="Q3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>16</v>
+      </c>
+      <c r="S3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -6355,8 +6887,14 @@
       <c r="Q4">
         <v>1134890</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>1134890</v>
+      </c>
+      <c r="S4">
+        <v>1134890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6405,13 +6943,19 @@
       <c r="Q5">
         <v>22939</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>22939</v>
+      </c>
+      <c r="S5">
+        <v>22939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -6454,8 +6998,14 @@
       <c r="Q7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>1000</v>
+      </c>
+      <c r="S7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -6498,8 +7048,14 @@
       <c r="Q8">
         <v>698</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>703</v>
+      </c>
+      <c r="S8">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -6542,8 +7098,14 @@
       <c r="Q9">
         <v>302</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>279</v>
+      </c>
+      <c r="S9">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6586,8 +7148,14 @@
       <c r="Q10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>18</v>
+      </c>
+      <c r="S10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6630,8 +7198,14 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6674,8 +7248,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6718,8 +7298,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -6756,8 +7342,14 @@
       <c r="Q15">
         <v>1720</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>1578</v>
+      </c>
+      <c r="S15">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -6794,8 +7386,14 @@
       <c r="Q16">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>159</v>
+      </c>
+      <c r="S16">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -6863,8 +7461,16 @@
         <f t="shared" si="0"/>
         <v>1737</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" ref="R17:S17" si="1">SUM(R15, R16)</f>
+        <v>1737</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -6873,201 +7479,225 @@
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:P18" si="1">C15/1737</f>
+        <f t="shared" ref="C18:P18" si="2">C15/1737</f>
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94012665515256189</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9654576856649395</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98388025331030515</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99309153713298792</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94242947610823258</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97063903281519859</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98503166378814044</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99021301093839953</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86931491076568801</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86931491076568801</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" ref="C18:Q18" si="2">Q15/1736</f>
+        <f t="shared" ref="Q18:S18" si="3">Q15/1736</f>
         <v>0.99078341013824889</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.90898617511520741</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.93605990783410142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" ref="B19:P20" si="3">B16/1737</f>
+        <f t="shared" ref="B19:P20" si="4">B16/1737</f>
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9873344847438115E-2</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4542314335060449E-2</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6119746689694875E-2</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9084628670120895E-3</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7570523891767415E-2</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9360967184801381E-2</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4968336211859529E-2</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.7869890616004603E-3</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13068508923431202</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13068508923431202</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" ref="B19:Q20" si="4">Q16/1736</f>
+        <f t="shared" ref="Q19:S20" si="5">Q16/1736</f>
         <v>9.7926267281105983E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="2">
+        <f t="shared" si="5"/>
+        <v>9.158986175115208E-2</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="5"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>1.0005760368663594</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0005760368663594</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="5"/>
         <v>1.0005760368663594</v>
       </c>
     </row>

--- a/Graph Results/Graph Results.xlsx
+++ b/Graph Results/Graph Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="641" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="641"/>
   </bookViews>
   <sheets>
     <sheet name="Facebook" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Epinions" sheetId="5" r:id="rId6"/>
     <sheet name="Youtube" sheetId="6" r:id="rId7"/>
     <sheet name="Skitter" sheetId="7" r:id="rId8"/>
+    <sheet name="Directed Epinions " sheetId="10" r:id="rId9"/>
+    <sheet name="Directed Wikivote" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="68">
   <si>
     <t>Edges</t>
   </si>
@@ -84,9 +86,6 @@
     <t>Components</t>
   </si>
   <si>
-    <t>Largest Component (108300)</t>
-  </si>
-  <si>
     <t>Largest Component (75888)</t>
   </si>
   <si>
@@ -130,9 +129,6 @@
   </si>
   <si>
     <t>Largest Component (36692)</t>
-  </si>
-  <si>
-    <t>Largest Component (133280)</t>
   </si>
   <si>
     <t>Tree 3</t>
@@ -216,10 +212,31 @@
     <t>Tree 5 v2</t>
   </si>
   <si>
-    <t>Tree 3v2</t>
+    <t>Tree 3 v5</t>
   </si>
   <si>
-    <t>Tree 3 v5</t>
+    <t>Largest Component (8298)</t>
+  </si>
+  <si>
+    <t>1/4 CO Median</t>
+  </si>
+  <si>
+    <t>1/4 CO median</t>
+  </si>
+  <si>
+    <t>Unreachability (out of 1000)</t>
+  </si>
+  <si>
+    <t>UnReachability (out of 1000)</t>
+  </si>
+  <si>
+    <t>Approx. Diameter (2)</t>
+  </si>
+  <si>
+    <t>Largest Component (18772)</t>
+  </si>
+  <si>
+    <t>Largest Component (213133)</t>
   </si>
 </sst>
 </file>
@@ -553,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,23 +584,24 @@
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -598,34 +616,37 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -683,8 +704,11 @@
       <c r="S2">
         <v>5942</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>49621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -742,8 +766,11 @@
       <c r="S3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -801,8 +828,11 @@
       <c r="S4">
         <v>4039</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -860,8 +890,11 @@
       <c r="S5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -878,7 +911,7 @@
         <v>1000</v>
       </c>
       <c r="G7">
-        <v>1000</v>
+        <v>966</v>
       </c>
       <c r="H7">
         <v>1000</v>
@@ -916,8 +949,11 @@
       <c r="S7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -934,16 +970,16 @@
         <v>86</v>
       </c>
       <c r="G8">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="H8">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="I8">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="J8">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="K8">
         <v>752</v>
@@ -972,8 +1008,11 @@
       <c r="S8">
         <v>984</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -990,16 +1029,16 @@
         <v>240</v>
       </c>
       <c r="G9">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="H9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J9">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K9">
         <v>223</v>
@@ -1028,8 +1067,11 @@
       <c r="S9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1046,10 +1088,10 @@
         <v>362</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1084,8 +1126,11 @@
       <c r="S10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1102,7 +1147,7 @@
         <v>227</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1140,8 +1185,11 @@
       <c r="S11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1158,7 +1206,7 @@
         <v>76</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1196,8 +1244,11 @@
       <c r="S12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1214,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1252,10 +1303,13 @@
       <c r="S13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -1299,10 +1353,13 @@
       <c r="S15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1346,10 +1403,13 @@
       <c r="S16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <f>SUM(B15, B16)</f>
@@ -1408,17 +1468,25 @@
         <v>13</v>
       </c>
       <c r="P17">
-        <f t="shared" ref="P17:Q17" si="2">SUM(P15, P16)</f>
+        <f t="shared" ref="P17" si="2">SUM(P15, P16)</f>
         <v>13</v>
       </c>
       <c r="Q17">
         <f>SUM(Q15, Q16)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f>SUM(R15, R16)</f>
+        <v>12</v>
+      </c>
+      <c r="S17">
+        <f>SUM(S15, S16)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2">
         <f>B15/15</f>
@@ -1481,146 +1549,919 @@
         <v>0.73333333333333328</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" ref="Q18" si="4">Q15/15</f>
+        <f t="shared" ref="Q18:S20" si="4">Q15/15</f>
         <v>0.8666666666666667</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="2">
+        <f t="shared" si="4"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="4"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" ref="T18" si="5">T15/15</f>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" ref="B19:P20" si="5">B16/15</f>
+        <f t="shared" ref="B19:P20" si="6">B16/15</f>
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" ref="Q19" si="6">Q16/15</f>
+        <f t="shared" ref="Q19" si="7">Q16/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="2">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" ref="T19" si="8">T16/15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" ref="Q20" si="7">Q17/15</f>
+        <f t="shared" ref="Q20" si="9">Q17/15</f>
         <v>0.93333333333333335</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="4"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" ref="T20" si="10">T17/15</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>103689</v>
+      </c>
+      <c r="C2">
+        <v>9838</v>
+      </c>
+      <c r="D2">
+        <v>15485</v>
+      </c>
+      <c r="E2">
+        <v>23926</v>
+      </c>
+      <c r="F2">
+        <v>36076</v>
+      </c>
+      <c r="G2">
+        <v>9832</v>
+      </c>
+      <c r="H2">
+        <v>15467</v>
+      </c>
+      <c r="I2">
+        <v>23813</v>
+      </c>
+      <c r="J2">
+        <v>35686</v>
+      </c>
+      <c r="K2">
+        <v>5949</v>
+      </c>
+      <c r="L2">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>2316</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>122</v>
+      </c>
+      <c r="F4">
+        <v>1166</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>401</v>
+      </c>
+      <c r="I4">
+        <v>1140</v>
+      </c>
+      <c r="J4">
+        <v>1263</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>5924</v>
+      </c>
+      <c r="C5">
+        <v>8293</v>
+      </c>
+      <c r="D5">
+        <v>8269</v>
+      </c>
+      <c r="E5">
+        <v>8085</v>
+      </c>
+      <c r="F5">
+        <v>7133</v>
+      </c>
+      <c r="G5">
+        <v>8286</v>
+      </c>
+      <c r="H5">
+        <v>7880</v>
+      </c>
+      <c r="I5">
+        <v>7156</v>
+      </c>
+      <c r="J5">
+        <v>7036</v>
+      </c>
+      <c r="K5">
+        <v>8286</v>
+      </c>
+      <c r="L5">
+        <v>7978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>995</v>
+      </c>
+      <c r="D7">
+        <v>982</v>
+      </c>
+      <c r="E7">
+        <v>838</v>
+      </c>
+      <c r="F7">
+        <v>250</v>
+      </c>
+      <c r="G7">
+        <v>992</v>
+      </c>
+      <c r="H7">
+        <v>813</v>
+      </c>
+      <c r="I7">
+        <v>347</v>
+      </c>
+      <c r="J7">
+        <v>159</v>
+      </c>
+      <c r="K7">
+        <v>998</v>
+      </c>
+      <c r="L7">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>127</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>66</v>
+      </c>
+      <c r="J8">
+        <v>213</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>146</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>22</v>
+      </c>
+      <c r="I9">
+        <v>149</v>
+      </c>
+      <c r="J9">
+        <v>397</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>169</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>215</v>
+      </c>
+      <c r="J10">
+        <v>210</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>134</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <v>124</v>
+      </c>
+      <c r="J11">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>83</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>64</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>61</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>31</v>
+      </c>
+      <c r="I13">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B15, B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:G17" si="0">SUM(C15, C16)</f>
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17" si="1">SUM(H15, H16)</f>
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17" si="2">SUM(I15, I16)</f>
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17" si="3">SUM(J15, J16)</f>
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17" si="4">SUM(K15, K16)</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17" si="5">SUM(L15, L16)</f>
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17" si="6">SUM(M15, M16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2">
+        <f>B15/15</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:M18" si="7">C15/15</f>
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="7"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="7"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="7"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="7"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" ref="B19:M20" si="8">B16/15</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="8"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="8"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="8"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="8"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1632,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,31 +2500,31 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1782,7 +2623,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>6474</v>
@@ -1961,10 +2802,10 @@
         <v>730</v>
       </c>
       <c r="N8">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="O8">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2005,7 +2846,7 @@
         <v>252</v>
       </c>
       <c r="N9">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O9">
         <v>107</v>
@@ -2049,10 +2890,10 @@
         <v>17</v>
       </c>
       <c r="N10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2189,7 +3030,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -2233,7 +3074,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2275,16 +3116,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <f>SUM(C15,C16)</f>
         <v>15</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:M17" si="0">SUM(D15,D16)</f>
+        <f t="shared" ref="D17:O17" si="0">SUM(D15,D16)</f>
         <v>15</v>
       </c>
       <c r="E17">
@@ -2323,10 +3164,18 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
@@ -2370,13 +3219,21 @@
         <v>0.93333333333333335</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" ref="M18" si="8">M15/15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M18:O20" si="8">M15/15</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="8"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="8"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2">
@@ -2423,10 +3280,18 @@
         <f t="shared" ref="M19" si="10">M16/15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="2">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2">
@@ -2471,6 +3336,14 @@
       </c>
       <c r="M20" s="2">
         <f t="shared" ref="M20" si="11">M17/15</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2481,10 +3354,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,23 +3368,24 @@
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -2526,34 +3400,37 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2597,10 +3474,10 @@
         <v>81701</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q2">
         <v>69213</v>
@@ -2611,8 +3488,11 @@
       <c r="S2">
         <v>42761</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>46969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2664,10 +3544,13 @@
       <c r="S3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>21363</v>
@@ -2717,8 +3600,11 @@
       <c r="S4">
         <v>21363</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>20374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2770,13 +3656,16 @@
       <c r="S5">
         <v>86938</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>86047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2793,7 +3682,7 @@
         <v>1000</v>
       </c>
       <c r="G7">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H7">
         <v>1000</v>
@@ -2825,8 +3714,11 @@
       <c r="S7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2843,40 +3735,43 @@
         <v>960</v>
       </c>
       <c r="G8">
+        <v>404</v>
+      </c>
+      <c r="H8">
+        <v>835</v>
+      </c>
+      <c r="I8">
         <v>979</v>
       </c>
-      <c r="H8">
-        <v>994</v>
-      </c>
-      <c r="I8">
-        <v>997</v>
-      </c>
       <c r="J8">
         <v>1000</v>
       </c>
       <c r="K8">
-        <v>971</v>
+        <v>331</v>
       </c>
       <c r="L8">
-        <v>980</v>
+        <v>583</v>
       </c>
       <c r="M8">
-        <v>983</v>
+        <v>710</v>
       </c>
       <c r="N8">
-        <v>992</v>
+        <v>843</v>
       </c>
       <c r="Q8">
         <v>978</v>
       </c>
       <c r="R8">
-        <v>975</v>
+        <v>403</v>
       </c>
       <c r="S8">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="T8">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2893,40 +3788,43 @@
         <v>31</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>448</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22</v>
+        <v>486</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>373</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="N9">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>17</v>
       </c>
       <c r="R9">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="S9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="T9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2943,11 +3841,11 @@
         <v>9</v>
       </c>
       <c r="G10">
+        <v>135</v>
+      </c>
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
@@ -2955,28 +3853,31 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10">
         <v>4</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="S10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2993,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3005,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3020,13 +3921,16 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3055,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3070,13 +3974,16 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3125,10 +4032,13 @@
       <c r="S13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>103</v>
@@ -3163,10 +4073,13 @@
       <c r="S15">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>60</v>
@@ -3201,10 +4114,13 @@
       <c r="S16">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <f>SUM(B15, B16)</f>
@@ -3267,13 +4183,25 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <f t="shared" ref="Q17" si="4">SUM(Q15, Q16)</f>
+        <f t="shared" ref="Q17:T17" si="4">SUM(Q15, Q16)</f>
         <v>163</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2">
         <f>B15/163</f>
@@ -3339,148 +4267,184 @@
         <f t="shared" si="6"/>
         <v>0.92024539877300615</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="2">
+        <f t="shared" ref="R18:T18" si="7">R15/163</f>
+        <v>0.65030674846625769</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="7"/>
+        <v>0.67484662576687116</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" si="7"/>
+        <v>0.61349693251533743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" ref="B19:M20" si="7">B16/163</f>
+        <f t="shared" ref="B19:M20" si="8">B16/163</f>
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.36809815950920244</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.31901840490797545</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1165644171779141</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.1349693251533744E-3</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.38036809815950923</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.41104294478527609</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.30674846625766872</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" ref="N19:Q19" si="8">N16/163</f>
+        <f t="shared" ref="N19:Q19" si="9">N16/163</f>
         <v>4.2944785276073622E-2</v>
       </c>
       <c r="O19" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="9"/>
+        <v>7.9754601226993863E-2</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" ref="R19:T19" si="10">R16/163</f>
+        <v>0.30061349693251532</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="10"/>
+        <v>0.2822085889570552</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" si="10"/>
+        <v>0.3619631901840491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P19" s="2">
+      <c r="C20" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="D20" s="2">
         <f t="shared" si="8"/>
-        <v>7.9754601226993863E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.96932515337423308</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.93251533742331283</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.87730061349693256</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" ref="N20:Q20" si="9">N17/163</f>
+        <f t="shared" ref="N20:Q20" si="11">N17/163</f>
         <v>0.99386503067484666</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" ref="R20:T20" si="12">R17/163</f>
+        <v>0.95092024539877296</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="12"/>
+        <v>0.95705521472392641</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" si="12"/>
+        <v>0.97546012269938653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3490,10 +4454,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3504,23 +4468,24 @@
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -3535,34 +4500,37 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3606,10 +4574,10 @@
         <v>81246</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q2">
         <v>104885</v>
@@ -3620,10 +4588,13 @@
       <c r="S2">
         <v>46036</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>91760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -3673,10 +4644,13 @@
       <c r="S3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>17903</v>
@@ -3726,8 +4700,11 @@
       <c r="S4">
         <v>17903</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>17564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3779,13 +4756,16 @@
       <c r="S5">
         <v>115378</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>114920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3802,7 +4782,7 @@
         <v>1000</v>
       </c>
       <c r="G7">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="H7">
         <v>1000</v>
@@ -3834,8 +4814,11 @@
       <c r="S7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3852,40 +4835,43 @@
         <v>984</v>
       </c>
       <c r="G8">
-        <v>983</v>
+        <v>242</v>
       </c>
       <c r="H8">
-        <v>986</v>
+        <v>531</v>
       </c>
       <c r="I8">
-        <v>992</v>
+        <v>779</v>
       </c>
       <c r="J8">
-        <v>999</v>
+        <v>932</v>
       </c>
       <c r="K8">
-        <v>986</v>
+        <v>180</v>
       </c>
       <c r="L8">
-        <v>988</v>
+        <v>341</v>
       </c>
       <c r="M8">
-        <v>990</v>
+        <v>468</v>
       </c>
       <c r="N8">
-        <v>992</v>
+        <v>569</v>
       </c>
       <c r="Q8">
         <v>987</v>
       </c>
       <c r="R8">
-        <v>989</v>
+        <v>245</v>
       </c>
       <c r="S8">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="T8">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3902,40 +4888,43 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>512</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>435</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>511</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>546</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>481</v>
       </c>
       <c r="N9">
-        <v>8</v>
+        <v>399</v>
       </c>
       <c r="Q9">
         <v>13</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>522</v>
       </c>
       <c r="S9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="T9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3952,40 +4941,43 @@
         <v>4</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="S10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4002,10 +4994,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4014,10 +5006,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -4029,13 +5021,16 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4052,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4084,8 +5079,11 @@
       <c r="S12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4134,10 +5132,13 @@
       <c r="S13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>108</v>
@@ -4172,10 +5173,13 @@
       <c r="S15">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>79</v>
@@ -4210,10 +5214,13 @@
       <c r="S16">
         <v>85</v>
       </c>
+      <c r="T16">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <f>SUM(B15, B16)</f>
@@ -4282,7 +5289,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2">
         <f>B15/200</f>
@@ -4351,7 +5358,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ref="B19:N20" si="6">B16/200</f>
@@ -4420,7 +5427,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="6"/>
@@ -4489,7 +5496,7 @@
     </row>
     <row r="25" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4499,10 +5506,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4512,23 +5519,24 @@
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="6" width="11.140625" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -4543,34 +5551,37 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4628,8 +5639,11 @@
       <c r="S2">
         <v>64422</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>101440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4687,10 +5701,13 @@
       <c r="S3">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>33696</v>
@@ -4746,8 +5763,11 @@
       <c r="S4">
         <v>33696</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>33696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4805,13 +5825,16 @@
       <c r="S5">
         <v>2997</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4840,7 +5863,7 @@
         <v>1000</v>
       </c>
       <c r="K7">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="L7">
         <v>1000</v>
@@ -4866,8 +5889,11 @@
       <c r="S7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4884,28 +5910,28 @@
         <v>337</v>
       </c>
       <c r="G8">
-        <v>508</v>
+        <v>442</v>
       </c>
       <c r="H8">
-        <v>767</v>
+        <v>725</v>
       </c>
       <c r="I8">
-        <v>906</v>
+        <v>868</v>
       </c>
       <c r="J8">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="K8">
-        <v>463</v>
+        <v>368</v>
       </c>
       <c r="L8">
-        <v>607</v>
+        <v>542</v>
       </c>
       <c r="M8">
-        <v>704</v>
+        <v>651</v>
       </c>
       <c r="N8">
-        <v>755</v>
+        <v>719</v>
       </c>
       <c r="O8">
         <v>175</v>
@@ -4922,8 +5948,11 @@
       <c r="S8">
         <v>583</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4940,28 +5969,28 @@
         <v>441</v>
       </c>
       <c r="G9">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="H9">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="I9">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="J9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>462</v>
+        <v>524</v>
       </c>
       <c r="L9">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="M9">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="N9">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="O9">
         <v>246</v>
@@ -4978,8 +6007,11 @@
       <c r="S9">
         <v>373</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4996,10 +6028,10 @@
         <v>203</v>
       </c>
       <c r="G10">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5008,16 +6040,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O10">
         <v>436</v>
@@ -5034,8 +6066,11 @@
       <c r="S10">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5052,7 +6087,7 @@
         <v>6</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -5090,8 +6125,11 @@
       <c r="S11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5146,8 +6184,11 @@
       <c r="S12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5202,10 +6243,13 @@
       <c r="S13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>50</v>
@@ -5246,10 +6290,13 @@
       <c r="S15">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -5290,10 +6337,13 @@
       <c r="S16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <f>SUM(B15, B16)</f>
@@ -5359,211 +6409,259 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" ref="R17:T17" si="3">SUM(R15, R16)</f>
+        <v>56</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2">
         <f>B15/56</f>
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:N18" si="3">C15/56</f>
+        <f t="shared" ref="C18:N18" si="4">C15/56</f>
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8928571428571429</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9464285714285714</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9642857142857143</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8928571428571429</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9464285714285714</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" ref="O18:P18" si="4">O15/56</f>
+        <f t="shared" ref="O18:P18" si="5">O15/56</f>
         <v>0.7857142857142857</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8035714285714286</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" ref="Q18" si="5">Q15/56</f>
+        <f t="shared" ref="Q18:T18" si="6">Q15/56</f>
         <v>0.9821428571428571</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="2">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" si="6"/>
+        <v>0.9464285714285714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" ref="B19:N20" si="6">B16/56</f>
+        <f t="shared" ref="B19:N20" si="7">B16/56</f>
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.3571428571428568E-2</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.3571428571428568E-2</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" ref="O19:P19" si="7">O16/56</f>
+        <f t="shared" ref="O19:P19" si="8">O16/56</f>
         <v>0.21428571428571427</v>
       </c>
       <c r="P19" s="2">
+        <f t="shared" si="8"/>
+        <v>0.19642857142857142</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" ref="Q19:T19" si="9">Q16/56</f>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="9"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="9"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" si="9"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2">
         <f t="shared" si="7"/>
-        <v>0.19642857142857142</v>
-      </c>
-      <c r="Q19" s="2">
-        <f t="shared" ref="Q19" si="8">Q16/56</f>
-        <v>1.7857142857142856E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" ref="O20:P20" si="9">O17/56</f>
+        <f t="shared" ref="O20:P20" si="10">O17/56</f>
         <v>1</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" ref="Q20" si="10">Q17/56</f>
+        <f t="shared" ref="Q20:T20" si="11">Q17/56</f>
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -5574,10 +6672,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5588,23 +6686,24 @@
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -5619,34 +6718,37 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5704,8 +6806,11 @@
       <c r="S2">
         <v>135776</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>216624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5763,10 +6868,13 @@
       <c r="S3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>75877</v>
@@ -5822,8 +6930,11 @@
       <c r="S4">
         <v>75877</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>75877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -5881,13 +6992,16 @@
       <c r="S5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5942,8 +7056,11 @@
       <c r="S7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5960,16 +7077,16 @@
         <v>139</v>
       </c>
       <c r="G8">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="H8">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="I8">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="J8">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="K8">
         <v>404</v>
@@ -5998,8 +7115,11 @@
       <c r="S8">
         <v>547</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -6016,16 +7136,16 @@
         <v>491</v>
       </c>
       <c r="G9">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H9">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="I9">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J9">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>517</v>
@@ -6054,8 +7174,11 @@
       <c r="S9">
         <v>419</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6072,16 +7195,16 @@
         <v>335</v>
       </c>
       <c r="G10">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>76</v>
@@ -6110,8 +7233,11 @@
       <c r="S10">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6166,8 +7292,11 @@
       <c r="S11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6222,8 +7351,11 @@
       <c r="S12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6278,10 +7410,13 @@
       <c r="S13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>100</v>
@@ -6322,10 +7457,13 @@
       <c r="S15">
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>14</v>
@@ -6366,10 +7504,13 @@
       <c r="S16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <f>SUM(B15, B16)</f>
@@ -6435,211 +7576,259 @@
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" ref="R17:S17" si="3">SUM(R15, R16)</f>
+        <v>114</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="T17">
+        <f t="shared" ref="T17" si="4">SUM(T15, T16)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2">
         <f>B15/114</f>
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:N18" si="3">C15/114</f>
+        <f t="shared" ref="C18:N18" si="5">C15/114</f>
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.8771929824561403</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.90350877192982459</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.92105263157894735</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.88596491228070173</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.92105263157894735</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.96491228070175439</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" ref="O18:P18" si="4">O15/114</f>
+        <f t="shared" ref="O18:P18" si="6">O15/114</f>
         <v>0.7807017543859649</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.81578947368421051</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" ref="Q18" si="5">Q15/114</f>
+        <f t="shared" ref="Q18:S18" si="7">Q15/114</f>
         <v>0.96491228070175439</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="2">
+        <f t="shared" si="7"/>
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="7"/>
+        <v>0.92982456140350878</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" ref="T18:T20" si="8">T15/114</f>
+        <v>0.90350877192982459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" ref="B19:N20" si="6">B16/114</f>
+        <f t="shared" ref="B19:N20" si="9">B16/114</f>
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.12280701754385964</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.6491228070175433E-2</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.11403508771929824</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.5087719298245612E-2</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" ref="O19:P19" si="7">O16/114</f>
+        <f t="shared" ref="O19:P19" si="10">O16/114</f>
         <v>0.19298245614035087</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.15789473684210525</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" ref="Q19" si="8">Q16/114</f>
+        <f t="shared" ref="Q19:S19" si="11">Q16/114</f>
         <v>3.5087719298245612E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="2">
+        <f t="shared" si="11"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="11"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" si="8"/>
+        <v>9.6491228070175433E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" ref="O20:P20" si="9">O17/114</f>
+        <f t="shared" ref="O20:P20" si="12">O17/114</f>
         <v>0.97368421052631582</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.97368421052631582</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" ref="Q20" si="10">Q17/114</f>
+        <f t="shared" ref="Q20:S20" si="13">Q17/114</f>
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -6651,10 +7840,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6665,23 +7854,24 @@
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -6696,34 +7886,37 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6781,10 +7974,13 @@
       <c r="S2">
         <v>1689731</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>1817676</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -6837,10 +8033,13 @@
       <c r="S3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>1134890</v>
@@ -6893,8 +8092,11 @@
       <c r="S4">
         <v>1134890</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>1133999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6949,13 +8151,16 @@
       <c r="S5">
         <v>22939</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>23124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -7004,8 +8209,11 @@
       <c r="S7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -7054,8 +8262,11 @@
       <c r="S8">
         <v>838</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -7104,8 +8315,11 @@
       <c r="S9">
         <v>154</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -7154,8 +8368,11 @@
       <c r="S10">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -7204,8 +8421,11 @@
       <c r="S11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -7254,8 +8474,11 @@
       <c r="S12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -7304,10 +8527,13 @@
       <c r="S13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15">
         <v>1633</v>
@@ -7348,10 +8574,13 @@
       <c r="S15">
         <v>1625</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>104</v>
@@ -7392,10 +8621,13 @@
       <c r="S16">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <f>SUM(B15, B16)</f>
@@ -7462,17 +8694,21 @@
         <v>1737</v>
       </c>
       <c r="R17">
-        <f t="shared" ref="R17:S17" si="1">SUM(R15, R16)</f>
+        <f t="shared" ref="R17:T17" si="1">SUM(R15, R16)</f>
         <v>1737</v>
       </c>
       <c r="S17">
         <f t="shared" si="1"/>
         <v>1737</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2">
         <f>B15/1737</f>
@@ -7535,7 +8771,7 @@
         <v>0.86931491076568801</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" ref="Q18:S18" si="3">Q15/1736</f>
+        <f t="shared" ref="Q18:T20" si="3">Q15/1736</f>
         <v>0.99078341013824889</v>
       </c>
       <c r="R18" s="2">
@@ -7546,10 +8782,14 @@
         <f t="shared" si="3"/>
         <v>0.93605990783410142</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.9429723502304147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ref="B19:P20" si="4">B16/1737</f>
@@ -7623,10 +8863,14 @@
         <f t="shared" si="5"/>
         <v>6.4516129032258063E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="2">
+        <f t="shared" si="3"/>
+        <v>5.7603686635944701E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="4"/>
@@ -7698,6 +8942,10 @@
       </c>
       <c r="S20" s="2">
         <f t="shared" si="5"/>
+        <v>1.0005760368663594</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" si="3"/>
         <v>1.0005760368663594</v>
       </c>
     </row>
@@ -7770,7 +9018,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>1694616</v>
@@ -7903,6 +9151,707 @@
       </c>
       <c r="E13">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>508837</v>
+      </c>
+      <c r="C2">
+        <v>91490</v>
+      </c>
+      <c r="D2">
+        <v>131876</v>
+      </c>
+      <c r="E2">
+        <v>182538</v>
+      </c>
+      <c r="F2">
+        <v>245232</v>
+      </c>
+      <c r="H2">
+        <v>90789</v>
+      </c>
+      <c r="I2">
+        <v>130157</v>
+      </c>
+      <c r="J2">
+        <v>179275</v>
+      </c>
+      <c r="K2">
+        <v>237148</v>
+      </c>
+      <c r="L2">
+        <v>69507</v>
+      </c>
+      <c r="M2">
+        <v>87770</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>61</v>
+      </c>
+      <c r="F3">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>45</v>
+      </c>
+      <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3">
+        <v>28</v>
+      </c>
+      <c r="M3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>32223</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>458</v>
+      </c>
+      <c r="F4">
+        <v>14069</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>135</v>
+      </c>
+      <c r="J4">
+        <v>7321</v>
+      </c>
+      <c r="K4">
+        <v>18761</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>42185</v>
+      </c>
+      <c r="C5">
+        <v>73837</v>
+      </c>
+      <c r="D5">
+        <v>71006</v>
+      </c>
+      <c r="E5">
+        <v>66713</v>
+      </c>
+      <c r="F5">
+        <v>55763</v>
+      </c>
+      <c r="H5">
+        <v>73757</v>
+      </c>
+      <c r="I5">
+        <v>70569</v>
+      </c>
+      <c r="J5">
+        <v>60970</v>
+      </c>
+      <c r="K5">
+        <v>52544</v>
+      </c>
+      <c r="L5">
+        <v>75576</v>
+      </c>
+      <c r="M5">
+        <v>72469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>999</v>
+      </c>
+      <c r="E7">
+        <v>977</v>
+      </c>
+      <c r="F7">
+        <v>558</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+      <c r="I7">
+        <v>992</v>
+      </c>
+      <c r="J7">
+        <v>772</v>
+      </c>
+      <c r="K7">
+        <v>452</v>
+      </c>
+      <c r="L7">
+        <v>997</v>
+      </c>
+      <c r="M7">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>48</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>124</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>162</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>110</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>37</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>58</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>42</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>22</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>112</v>
+      </c>
+      <c r="E15">
+        <v>114</v>
+      </c>
+      <c r="F15">
+        <v>114</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>112</v>
+      </c>
+      <c r="J15">
+        <v>114</v>
+      </c>
+      <c r="K15">
+        <v>114</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>45</v>
+      </c>
+      <c r="M16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B15, B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:G17" si="0">SUM(C15, C16)</f>
+        <v>114</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17" si="1">SUM(H15, H16)</f>
+        <v>114</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17" si="2">SUM(I15, I16)</f>
+        <v>114</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17" si="3">SUM(J15, J16)</f>
+        <v>114</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17" si="4">SUM(K15, K16)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2">
+        <f>B15/114</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:G18" si="5">C15/114</f>
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="5"/>
+        <v>0.98245614035087714</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" ref="H18:K18" si="6">H15/114</f>
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="6"/>
+        <v>0.98245614035087714</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2">
+        <f>B16/114</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:G19" si="7">C16/114</f>
+        <v>0.12280701754385964</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="7"/>
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" ref="H19:K19" si="8">H16/114</f>
+        <v>0.12280701754385964</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2">
+        <f>B17/114</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" ref="C20:G20" si="9">C17/114</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" ref="H20:K20" si="10">H17/114</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
